--- a/ope.ed.gov/2012/hate-crimes-noncampus-virginia-colleges-and-universities-crime-2012.xlsx
+++ b/ope.ed.gov/2012/hate-crimes-noncampus-virginia-colleges-and-universities-crime-2012.xlsx
@@ -13,16 +13,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>Hate Crimes - Noncampus</t>
-  </si>
-  <si>
-    <t>Survey year</t>
-  </si>
-  <si>
-    <t>Unitid</t>
-  </si>
-  <si>
-    <t>Institution name</t>
+    <t>Survey Year</t>
+  </si>
+  <si>
+    <t>UnitID</t>
+  </si>
+  <si>
+    <t>Institution Name</t>
   </si>
   <si>
     <t>Campus ID</t>
@@ -34,88 +31,88 @@
     <t>Institution Size</t>
   </si>
   <si>
-    <t>Murder/Non-negligent manslaughter</t>
-  </si>
-  <si>
-    <t>Murder/Non-negligent manslaughter - Race</t>
-  </si>
-  <si>
-    <t>Murder/Non-negligent manslaughter - Religion</t>
-  </si>
-  <si>
-    <t>Murder/Non-negligent manslaughter - Sexual orientation</t>
-  </si>
-  <si>
-    <t>Murder/Non-negligent manslaughter - Gender</t>
-  </si>
-  <si>
-    <t>Murder/Non-negligent manslaughter - Disability</t>
-  </si>
-  <si>
-    <t>Murder/Non-negligent manslaughter - Ethnicity/National origin</t>
-  </si>
-  <si>
-    <t>Negligent manslaughter</t>
-  </si>
-  <si>
-    <t>Negligent manslaughter - Race</t>
-  </si>
-  <si>
-    <t>Negligent manslaughter - Religion</t>
-  </si>
-  <si>
-    <t>Negligent manslaughter - Sexual orientation</t>
-  </si>
-  <si>
-    <t>Negligent manslaughter - Gender</t>
-  </si>
-  <si>
-    <t>Negligent manslaughter - Disability</t>
-  </si>
-  <si>
-    <t>Negligent manslaughter - Ethnicity/National origin</t>
-  </si>
-  <si>
-    <t>Sex offenses - Forcible</t>
-  </si>
-  <si>
-    <t>Sex offenses - Forcible - Race</t>
-  </si>
-  <si>
-    <t>Sex offenses - Forcible - Religion</t>
-  </si>
-  <si>
-    <t>Sex offenses - Forcible - Sexual orientation</t>
-  </si>
-  <si>
-    <t>Sex offenses - Forcible - Gender</t>
-  </si>
-  <si>
-    <t>Sex offenses - Forcible - Disability</t>
-  </si>
-  <si>
-    <t>Sex offenses - Forcible - Ethnicity/National origin</t>
-  </si>
-  <si>
-    <t>Sex offenses - Non-forcible</t>
-  </si>
-  <si>
-    <t>Sex offenses - Non-forcible -Race</t>
-  </si>
-  <si>
-    <t>Sex offenses - Non-forcible - Religion</t>
-  </si>
-  <si>
-    <t>Sex offenses - Non-forcible - Sexual orientation</t>
-  </si>
-  <si>
-    <t>Sex offenses - Non-forcible - Gender</t>
-  </si>
-  <si>
-    <t>Sex offenses - Non-forcible - Disability</t>
-  </si>
-  <si>
-    <t>Sex offenses - Non-forcible - Ethnicity/National origin</t>
+    <t>Murder/Non-Negligent Manslaughter</t>
+  </si>
+  <si>
+    <t>Murder/Non-Negligent Manslaughter - Race</t>
+  </si>
+  <si>
+    <t>Murder/Non-Negligent Manslaughter - Religion</t>
+  </si>
+  <si>
+    <t>Murder/Non-Negligent Manslaughter - Sexual Orientation</t>
+  </si>
+  <si>
+    <t>Murder/Non-Negligent Manslaughter - Gender</t>
+  </si>
+  <si>
+    <t>Murder/Non-Negligent Manslaughter - Disability</t>
+  </si>
+  <si>
+    <t>Murder/Non-Negligent Manslaughter - Ethnicity/National Origin</t>
+  </si>
+  <si>
+    <t>Negligent Manslaughter</t>
+  </si>
+  <si>
+    <t>Negligent Manslaughter - Race</t>
+  </si>
+  <si>
+    <t>Negligent Manslaughter - Religion</t>
+  </si>
+  <si>
+    <t>Negligent Manslaughter - Sexual Orientation</t>
+  </si>
+  <si>
+    <t>Negligent Manslaughter - Gender</t>
+  </si>
+  <si>
+    <t>Negligent Manslaughter - Disability</t>
+  </si>
+  <si>
+    <t>Negligent Manslaughter - Ethnicity/National Origin</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Forcible</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Forcible - Race</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Forcible - Religion</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Forcible - Sexual Orientation</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Forcible - Gender</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Forcible - Disability</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Forcible - Ethnicity/National Origin</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Non-Forcible</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Non-Forcible -Race</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Non-Forcible - Religion</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Non-Forcible - Sexual Orientation</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Non-Forcible - Gender</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Non-Forcible - Disability</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Non-Forcible - Ethnicity/National Origin</t>
   </si>
   <si>
     <t>Robbery</t>
@@ -127,7 +124,7 @@
     <t>Robbery - Religion</t>
   </si>
   <si>
-    <t>Robbery - Sexual orientation</t>
+    <t>Robbery - Sexual Orientation</t>
   </si>
   <si>
     <t>Robbery - Gender</t>
@@ -136,28 +133,28 @@
     <t>Robbery - Disability</t>
   </si>
   <si>
-    <t>Robbery - Ethnicity/National origin</t>
-  </si>
-  <si>
-    <t>Aggravated assault</t>
-  </si>
-  <si>
-    <t>Aggravated assault - Race</t>
-  </si>
-  <si>
-    <t>Aggravated assault - Religion</t>
-  </si>
-  <si>
-    <t>Aggravated assault - Sexual orientation</t>
-  </si>
-  <si>
-    <t>Aggravated assault - Gender</t>
-  </si>
-  <si>
-    <t>Aggravated assault - Disability</t>
-  </si>
-  <si>
-    <t>Aggravated assault - Ethnicity/National origin</t>
+    <t>Robbery - Ethnicity/National Origin</t>
+  </si>
+  <si>
+    <t>Aggravated Assault</t>
+  </si>
+  <si>
+    <t>Aggravated Assault - Race</t>
+  </si>
+  <si>
+    <t>Aggravated Assault - Religion</t>
+  </si>
+  <si>
+    <t>Aggravated Assault - Sexual Orientation</t>
+  </si>
+  <si>
+    <t>Aggravated Assault - Gender</t>
+  </si>
+  <si>
+    <t>Aggravated Assault - Disability</t>
+  </si>
+  <si>
+    <t>Aggravated Assault - Ethnicity/National Origin</t>
   </si>
   <si>
     <t>Burglary</t>
@@ -169,7 +166,7 @@
     <t>Burglary - Religion</t>
   </si>
   <si>
-    <t>Burglary - Sexual orientation</t>
+    <t>Burglary - Sexual Orientation</t>
   </si>
   <si>
     <t>Burglary - Gender</t>
@@ -178,28 +175,28 @@
     <t>Burglary - Disability</t>
   </si>
   <si>
-    <t>Burglary - Ethnicity/National origin</t>
-  </si>
-  <si>
-    <t>Motor vehicle theft</t>
-  </si>
-  <si>
-    <t>Motor vehicle theft - Race</t>
-  </si>
-  <si>
-    <t>Motor vehicle theft - Religion</t>
-  </si>
-  <si>
-    <t>Motor vehicle theft - Sexual orientation</t>
-  </si>
-  <si>
-    <t>Motor vehicle theft - Gender</t>
-  </si>
-  <si>
-    <t>Motor vehicle theft - Disability</t>
-  </si>
-  <si>
-    <t>Motor vehicle theft - Ethnicity/National origin</t>
+    <t>Burglary - Ethnicity/National Origin</t>
+  </si>
+  <si>
+    <t>Motor Vehicle Theft</t>
+  </si>
+  <si>
+    <t>Motor Vehicle Theft - Race</t>
+  </si>
+  <si>
+    <t>Motor Vehicle Theft - Religion</t>
+  </si>
+  <si>
+    <t>Motor Vehicle Theft - Sexual Orientation</t>
+  </si>
+  <si>
+    <t>Motor Vehicle Theft - Gender</t>
+  </si>
+  <si>
+    <t>Motor Vehicle Theft - Disability</t>
+  </si>
+  <si>
+    <t>Motor Vehicle Theft - Ethnicity/National Origin</t>
   </si>
   <si>
     <t>Arson</t>
@@ -211,7 +208,7 @@
     <t>Arson - Religion</t>
   </si>
   <si>
-    <t>Arson - Sexual orientation</t>
+    <t>Arson - Sexual Orientation</t>
   </si>
   <si>
     <t>Arson - Gender</t>
@@ -220,49 +217,49 @@
     <t>Arson - Disability</t>
   </si>
   <si>
-    <t>Arson - Ethnicity/National origin</t>
-  </si>
-  <si>
-    <t>Simple assault</t>
-  </si>
-  <si>
-    <t>Simple assault - Race</t>
-  </si>
-  <si>
-    <t>Simple assault - Religion</t>
-  </si>
-  <si>
-    <t>Simple assault - Sexual orientation</t>
-  </si>
-  <si>
-    <t>Simple assault - Gender</t>
-  </si>
-  <si>
-    <t>Simple assault - Disability</t>
-  </si>
-  <si>
-    <t>Simple assault - Ethnicity/National origin</t>
-  </si>
-  <si>
-    <t>Larceny-theft</t>
-  </si>
-  <si>
-    <t>Larceny-theft - Race</t>
-  </si>
-  <si>
-    <t>Larceny-theft - Religion</t>
-  </si>
-  <si>
-    <t>Larceny-theft - Sexual orientation</t>
-  </si>
-  <si>
-    <t>Larceny-theft - Gender</t>
-  </si>
-  <si>
-    <t>Larceny-theft - Disability</t>
-  </si>
-  <si>
-    <t>Larceny-theft - Ethnicity/National origin</t>
+    <t>Arson - Ethnicity/National Origin</t>
+  </si>
+  <si>
+    <t>Simple Assault</t>
+  </si>
+  <si>
+    <t>Simple Assault - Race</t>
+  </si>
+  <si>
+    <t>Simple Assault - Religion</t>
+  </si>
+  <si>
+    <t>Simple Assault - Sexual Orientation</t>
+  </si>
+  <si>
+    <t>Simple Assault - Gender</t>
+  </si>
+  <si>
+    <t>Simple Assault - Disability</t>
+  </si>
+  <si>
+    <t>Simple Assault - Ethnicity/National Origin</t>
+  </si>
+  <si>
+    <t>Larceny-Theft</t>
+  </si>
+  <si>
+    <t>Larceny-Theft - Race</t>
+  </si>
+  <si>
+    <t>Larceny-Theft - Religion</t>
+  </si>
+  <si>
+    <t>Larceny-Theft - Sexual Orientation</t>
+  </si>
+  <si>
+    <t>Larceny-Theft - Gender</t>
+  </si>
+  <si>
+    <t>Larceny-Theft - Disability</t>
+  </si>
+  <si>
+    <t>Larceny-Theft - Ethnicity/National Origin</t>
   </si>
   <si>
     <t>Intimidation</t>
@@ -274,7 +271,7 @@
     <t>Intimidation - Religion</t>
   </si>
   <si>
-    <t>Intimidation - Sexual orientation</t>
+    <t>Intimidation - Sexual Orientation</t>
   </si>
   <si>
     <t>Intimidation - Gender</t>
@@ -283,28 +280,28 @@
     <t>Intimidation - Disability</t>
   </si>
   <si>
-    <t>Intimidation - Ethnicity/National origin</t>
-  </si>
-  <si>
-    <t>Destruction/damage/ vandalism of property</t>
-  </si>
-  <si>
-    <t>Destruction/damage/ vandalism of property - Race</t>
-  </si>
-  <si>
-    <t>Destruction/damage/ vandalism of property - Religion</t>
-  </si>
-  <si>
-    <t>Destruction/damage/ vandalism of property - Sexual orientation</t>
-  </si>
-  <si>
-    <t>Destruction/damage/ vandalism of property - Gender</t>
-  </si>
-  <si>
-    <t>Destruction/damage/ vandalism of property - Disability</t>
-  </si>
-  <si>
-    <t>Destruction/damage/ vandalism of property - Ethnicity/National origin</t>
+    <t>Intimidation - Ethnicity/National Origin</t>
+  </si>
+  <si>
+    <t>Destruction/Damage/Vandalism of Property</t>
+  </si>
+  <si>
+    <t>Destruction/Damage/Vandalism of Property - Race</t>
+  </si>
+  <si>
+    <t>Destruction/Damage/Vandalism of Property - Religion</t>
+  </si>
+  <si>
+    <t>Destruction/Damage/Vandalism of Property - Sexual Orientation</t>
+  </si>
+  <si>
+    <t>Destruction/Damage/Vandalism of Property - Gender</t>
+  </si>
+  <si>
+    <t>Destruction/Damage/Vandalism of Property - Disability</t>
+  </si>
+  <si>
+    <t>Destruction/Damage/Vandalism of Property - Ethnicity/National Origin</t>
   </si>
   <si>
     <t>Advanced Technology Institute</t>
@@ -841,298 +838,565 @@
       <c t="s" s="1" r="A1">
         <v>0</v>
       </c>
+      <c t="s" s="1" r="B1">
+        <v>1</v>
+      </c>
+      <c t="s" s="1" r="C1">
+        <v>2</v>
+      </c>
+      <c t="s" s="1" r="D1">
+        <v>3</v>
+      </c>
+      <c t="s" s="1" r="E1">
+        <v>4</v>
+      </c>
+      <c t="s" s="1" r="F1">
+        <v>5</v>
+      </c>
+      <c t="s" s="1" r="G1">
+        <v>6</v>
+      </c>
+      <c t="s" s="1" r="H1">
+        <v>7</v>
+      </c>
+      <c t="s" s="1" r="I1">
+        <v>8</v>
+      </c>
+      <c t="s" s="1" r="J1">
+        <v>9</v>
+      </c>
+      <c t="s" s="1" r="K1">
+        <v>10</v>
+      </c>
+      <c t="s" s="1" r="L1">
+        <v>11</v>
+      </c>
+      <c t="s" s="1" r="M1">
+        <v>12</v>
+      </c>
+      <c t="s" s="1" r="N1">
+        <v>13</v>
+      </c>
+      <c t="s" s="1" r="O1">
+        <v>14</v>
+      </c>
+      <c t="s" s="1" r="P1">
+        <v>15</v>
+      </c>
+      <c t="s" s="1" r="Q1">
+        <v>16</v>
+      </c>
+      <c t="s" s="1" r="R1">
+        <v>17</v>
+      </c>
+      <c t="s" s="1" r="S1">
+        <v>18</v>
+      </c>
+      <c t="s" s="1" r="T1">
+        <v>19</v>
+      </c>
+      <c t="s" s="1" r="U1">
+        <v>20</v>
+      </c>
+      <c t="s" s="1" r="V1">
+        <v>21</v>
+      </c>
+      <c t="s" s="1" r="W1">
+        <v>22</v>
+      </c>
+      <c t="s" s="1" r="X1">
+        <v>23</v>
+      </c>
+      <c t="s" s="1" r="Y1">
+        <v>24</v>
+      </c>
+      <c t="s" s="1" r="Z1">
+        <v>25</v>
+      </c>
+      <c t="s" s="1" r="AA1">
+        <v>26</v>
+      </c>
+      <c t="s" s="1" r="AB1">
+        <v>27</v>
+      </c>
+      <c t="s" s="1" r="AC1">
+        <v>28</v>
+      </c>
+      <c t="s" s="1" r="AD1">
+        <v>29</v>
+      </c>
+      <c t="s" s="1" r="AE1">
+        <v>30</v>
+      </c>
+      <c t="s" s="1" r="AF1">
+        <v>31</v>
+      </c>
+      <c t="s" s="1" r="AG1">
+        <v>32</v>
+      </c>
+      <c t="s" s="1" r="AH1">
+        <v>33</v>
+      </c>
+      <c t="s" s="1" r="AI1">
+        <v>34</v>
+      </c>
+      <c t="s" s="1" r="AJ1">
+        <v>35</v>
+      </c>
+      <c t="s" s="1" r="AK1">
+        <v>36</v>
+      </c>
+      <c t="s" s="1" r="AL1">
+        <v>37</v>
+      </c>
+      <c t="s" s="1" r="AM1">
+        <v>38</v>
+      </c>
+      <c t="s" s="1" r="AN1">
+        <v>39</v>
+      </c>
+      <c t="s" s="1" r="AO1">
+        <v>40</v>
+      </c>
+      <c t="s" s="1" r="AP1">
+        <v>41</v>
+      </c>
+      <c t="s" s="1" r="AQ1">
+        <v>42</v>
+      </c>
+      <c t="s" s="1" r="AR1">
+        <v>43</v>
+      </c>
+      <c t="s" s="1" r="AS1">
+        <v>44</v>
+      </c>
+      <c t="s" s="1" r="AT1">
+        <v>45</v>
+      </c>
+      <c t="s" s="1" r="AU1">
+        <v>46</v>
+      </c>
+      <c t="s" s="1" r="AV1">
+        <v>47</v>
+      </c>
+      <c t="s" s="1" r="AW1">
+        <v>48</v>
+      </c>
+      <c t="s" s="1" r="AX1">
+        <v>49</v>
+      </c>
+      <c t="s" s="1" r="AY1">
+        <v>50</v>
+      </c>
+      <c t="s" s="1" r="AZ1">
+        <v>51</v>
+      </c>
+      <c t="s" s="1" r="BA1">
+        <v>52</v>
+      </c>
+      <c t="s" s="1" r="BB1">
+        <v>53</v>
+      </c>
+      <c t="s" s="1" r="BC1">
+        <v>54</v>
+      </c>
+      <c t="s" s="1" r="BD1">
+        <v>55</v>
+      </c>
+      <c t="s" s="1" r="BE1">
+        <v>56</v>
+      </c>
+      <c t="s" s="1" r="BF1">
+        <v>57</v>
+      </c>
+      <c t="s" s="1" r="BG1">
+        <v>58</v>
+      </c>
+      <c t="s" s="1" r="BH1">
+        <v>59</v>
+      </c>
+      <c t="s" s="1" r="BI1">
+        <v>60</v>
+      </c>
+      <c t="s" s="1" r="BJ1">
+        <v>61</v>
+      </c>
+      <c t="s" s="1" r="BK1">
+        <v>62</v>
+      </c>
+      <c t="s" s="1" r="BL1">
+        <v>63</v>
+      </c>
+      <c t="s" s="1" r="BM1">
+        <v>64</v>
+      </c>
+      <c t="s" s="1" r="BN1">
+        <v>65</v>
+      </c>
+      <c t="s" s="1" r="BO1">
+        <v>66</v>
+      </c>
+      <c t="s" s="1" r="BP1">
+        <v>67</v>
+      </c>
+      <c t="s" s="1" r="BQ1">
+        <v>68</v>
+      </c>
+      <c t="s" s="1" r="BR1">
+        <v>69</v>
+      </c>
+      <c t="s" s="1" r="BS1">
+        <v>70</v>
+      </c>
+      <c t="s" s="1" r="BT1">
+        <v>71</v>
+      </c>
+      <c t="s" s="1" r="BU1">
+        <v>72</v>
+      </c>
+      <c t="s" s="1" r="BV1">
+        <v>73</v>
+      </c>
+      <c t="s" s="1" r="BW1">
+        <v>74</v>
+      </c>
+      <c t="s" s="1" r="BX1">
+        <v>75</v>
+      </c>
+      <c t="s" s="1" r="BY1">
+        <v>76</v>
+      </c>
+      <c t="s" s="1" r="BZ1">
+        <v>77</v>
+      </c>
+      <c t="s" s="1" r="CA1">
+        <v>78</v>
+      </c>
+      <c t="s" s="1" r="CB1">
+        <v>79</v>
+      </c>
+      <c t="s" s="1" r="CC1">
+        <v>80</v>
+      </c>
+      <c t="s" s="1" r="CD1">
+        <v>81</v>
+      </c>
+      <c t="s" s="1" r="CE1">
+        <v>82</v>
+      </c>
+      <c t="s" s="1" r="CF1">
+        <v>83</v>
+      </c>
+      <c t="s" s="1" r="CG1">
+        <v>84</v>
+      </c>
+      <c t="s" s="1" r="CH1">
+        <v>85</v>
+      </c>
+      <c t="s" s="1" r="CI1">
+        <v>86</v>
+      </c>
+      <c t="s" s="1" r="CJ1">
+        <v>87</v>
+      </c>
+      <c t="s" s="1" r="CK1">
+        <v>88</v>
+      </c>
+      <c t="s" s="1" r="CL1">
+        <v>89</v>
+      </c>
+      <c t="s" s="1" r="CM1">
+        <v>90</v>
+      </c>
+      <c t="s" s="1" r="CN1">
+        <v>91</v>
+      </c>
+      <c t="s" s="1" r="CO1">
+        <v>92</v>
+      </c>
+      <c t="s" s="1" r="CP1">
+        <v>93</v>
+      </c>
+      <c t="s" s="1" r="CQ1">
+        <v>94</v>
+      </c>
+      <c t="s" s="1" r="CR1">
+        <v>95</v>
+      </c>
+      <c t="s" s="1" r="CS1">
+        <v>96</v>
+      </c>
     </row>
     <row r="2">
-      <c t="s" s="1" r="A2">
-        <v>1</v>
-      </c>
-      <c t="s" s="1" r="B2">
-        <v>2</v>
+      <c s="1" r="A2">
+        <v>2012.0</v>
+      </c>
+      <c s="1" r="B2">
+        <v>231411.0</v>
       </c>
       <c t="s" s="1" r="C2">
-        <v>3</v>
-      </c>
-      <c t="s" s="1" r="D2">
-        <v>4</v>
+        <v>97</v>
+      </c>
+      <c s="1" r="D2">
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E2">
-        <v>5</v>
-      </c>
-      <c t="s" s="1" r="F2">
-        <v>6</v>
-      </c>
-      <c t="s" s="1" r="G2">
-        <v>7</v>
-      </c>
-      <c t="s" s="1" r="H2">
-        <v>8</v>
-      </c>
-      <c t="s" s="1" r="I2">
-        <v>9</v>
-      </c>
-      <c t="s" s="1" r="J2">
-        <v>10</v>
-      </c>
-      <c t="s" s="1" r="K2">
-        <v>11</v>
-      </c>
-      <c t="s" s="1" r="L2">
-        <v>12</v>
-      </c>
-      <c t="s" s="1" r="M2">
-        <v>13</v>
-      </c>
-      <c t="s" s="1" r="N2">
-        <v>14</v>
-      </c>
-      <c t="s" s="1" r="O2">
-        <v>15</v>
-      </c>
-      <c t="s" s="1" r="P2">
-        <v>16</v>
-      </c>
-      <c t="s" s="1" r="Q2">
-        <v>17</v>
-      </c>
-      <c t="s" s="1" r="R2">
-        <v>18</v>
-      </c>
-      <c t="s" s="1" r="S2">
-        <v>19</v>
-      </c>
-      <c t="s" s="1" r="T2">
-        <v>20</v>
-      </c>
-      <c t="s" s="1" r="U2">
-        <v>21</v>
-      </c>
-      <c t="s" s="1" r="V2">
-        <v>22</v>
-      </c>
-      <c t="s" s="1" r="W2">
-        <v>23</v>
-      </c>
-      <c t="s" s="1" r="X2">
-        <v>24</v>
-      </c>
-      <c t="s" s="1" r="Y2">
-        <v>25</v>
-      </c>
-      <c t="s" s="1" r="Z2">
-        <v>26</v>
-      </c>
-      <c t="s" s="1" r="AA2">
-        <v>27</v>
-      </c>
-      <c t="s" s="1" r="AB2">
-        <v>28</v>
-      </c>
-      <c t="s" s="1" r="AC2">
-        <v>29</v>
-      </c>
-      <c t="s" s="1" r="AD2">
-        <v>30</v>
-      </c>
-      <c t="s" s="1" r="AE2">
-        <v>31</v>
-      </c>
-      <c t="s" s="1" r="AF2">
-        <v>32</v>
-      </c>
-      <c t="s" s="1" r="AG2">
-        <v>33</v>
-      </c>
-      <c t="s" s="1" r="AH2">
-        <v>34</v>
-      </c>
-      <c t="s" s="1" r="AI2">
-        <v>35</v>
-      </c>
-      <c t="s" s="1" r="AJ2">
-        <v>36</v>
-      </c>
-      <c t="s" s="1" r="AK2">
-        <v>37</v>
-      </c>
-      <c t="s" s="1" r="AL2">
-        <v>38</v>
-      </c>
-      <c t="s" s="1" r="AM2">
-        <v>39</v>
-      </c>
-      <c t="s" s="1" r="AN2">
-        <v>40</v>
-      </c>
-      <c t="s" s="1" r="AO2">
-        <v>41</v>
-      </c>
-      <c t="s" s="1" r="AP2">
-        <v>42</v>
-      </c>
-      <c t="s" s="1" r="AQ2">
-        <v>43</v>
-      </c>
-      <c t="s" s="1" r="AR2">
-        <v>44</v>
-      </c>
-      <c t="s" s="1" r="AS2">
-        <v>45</v>
-      </c>
-      <c t="s" s="1" r="AT2">
-        <v>46</v>
-      </c>
-      <c t="s" s="1" r="AU2">
-        <v>47</v>
-      </c>
-      <c t="s" s="1" r="AV2">
-        <v>48</v>
-      </c>
-      <c t="s" s="1" r="AW2">
-        <v>49</v>
-      </c>
-      <c t="s" s="1" r="AX2">
-        <v>50</v>
-      </c>
-      <c t="s" s="1" r="AY2">
-        <v>51</v>
-      </c>
-      <c t="s" s="1" r="AZ2">
-        <v>52</v>
-      </c>
-      <c t="s" s="1" r="BA2">
-        <v>53</v>
-      </c>
-      <c t="s" s="1" r="BB2">
-        <v>54</v>
-      </c>
-      <c t="s" s="1" r="BC2">
-        <v>55</v>
-      </c>
-      <c t="s" s="1" r="BD2">
-        <v>56</v>
-      </c>
-      <c t="s" s="1" r="BE2">
-        <v>57</v>
-      </c>
-      <c t="s" s="1" r="BF2">
-        <v>58</v>
-      </c>
-      <c t="s" s="1" r="BG2">
-        <v>59</v>
-      </c>
-      <c t="s" s="1" r="BH2">
-        <v>60</v>
-      </c>
-      <c t="s" s="1" r="BI2">
-        <v>61</v>
-      </c>
-      <c t="s" s="1" r="BJ2">
-        <v>62</v>
-      </c>
-      <c t="s" s="1" r="BK2">
-        <v>63</v>
-      </c>
-      <c t="s" s="1" r="BL2">
-        <v>64</v>
-      </c>
-      <c t="s" s="1" r="BM2">
-        <v>65</v>
-      </c>
-      <c t="s" s="1" r="BN2">
-        <v>66</v>
-      </c>
-      <c t="s" s="1" r="BO2">
-        <v>67</v>
-      </c>
-      <c t="s" s="1" r="BP2">
-        <v>68</v>
-      </c>
-      <c t="s" s="1" r="BQ2">
-        <v>69</v>
-      </c>
-      <c t="s" s="1" r="BR2">
-        <v>70</v>
-      </c>
-      <c t="s" s="1" r="BS2">
-        <v>71</v>
-      </c>
-      <c t="s" s="1" r="BT2">
-        <v>72</v>
-      </c>
-      <c t="s" s="1" r="BU2">
-        <v>73</v>
-      </c>
-      <c t="s" s="1" r="BV2">
-        <v>74</v>
-      </c>
-      <c t="s" s="1" r="BW2">
-        <v>75</v>
-      </c>
-      <c t="s" s="1" r="BX2">
-        <v>76</v>
-      </c>
-      <c t="s" s="1" r="BY2">
-        <v>77</v>
-      </c>
-      <c t="s" s="1" r="BZ2">
-        <v>78</v>
-      </c>
-      <c t="s" s="1" r="CA2">
-        <v>79</v>
-      </c>
-      <c t="s" s="1" r="CB2">
-        <v>80</v>
-      </c>
-      <c t="s" s="1" r="CC2">
-        <v>81</v>
-      </c>
-      <c t="s" s="1" r="CD2">
-        <v>82</v>
-      </c>
-      <c t="s" s="1" r="CE2">
-        <v>83</v>
-      </c>
-      <c t="s" s="1" r="CF2">
-        <v>84</v>
-      </c>
-      <c t="s" s="1" r="CG2">
-        <v>85</v>
-      </c>
-      <c t="s" s="1" r="CH2">
-        <v>86</v>
-      </c>
-      <c t="s" s="1" r="CI2">
-        <v>87</v>
-      </c>
-      <c t="s" s="1" r="CJ2">
-        <v>88</v>
-      </c>
-      <c t="s" s="1" r="CK2">
-        <v>89</v>
-      </c>
-      <c t="s" s="1" r="CL2">
-        <v>90</v>
-      </c>
-      <c t="s" s="1" r="CM2">
-        <v>91</v>
-      </c>
-      <c t="s" s="1" r="CN2">
-        <v>92</v>
-      </c>
-      <c t="s" s="1" r="CO2">
-        <v>93</v>
-      </c>
-      <c t="s" s="1" r="CP2">
-        <v>94</v>
-      </c>
-      <c t="s" s="1" r="CQ2">
-        <v>95</v>
-      </c>
-      <c t="s" s="1" r="CR2">
-        <v>96</v>
-      </c>
-      <c t="s" s="1" r="CS2">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c s="1" r="F2">
+        <v>787.0</v>
+      </c>
+      <c s="1" r="G2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="I2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="J2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="K2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="L2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="M2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="U2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="V2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="W2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="X2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="Y2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="Z2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AA2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AB2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AC2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AD2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AE2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AF2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AG2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AH2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AI2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AJ2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AK2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AL2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AM2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AN2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AO2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AP2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AQ2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AR2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AS2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AT2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AU2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AV2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AW2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AX2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AY2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AZ2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BA2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BB2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BC2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BD2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BE2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BF2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BG2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BH2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BI2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BJ2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BK2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BL2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BM2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BN2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BO2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BP2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BQ2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BR2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BS2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BT2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BU2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BV2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BW2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BX2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BY2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BZ2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CA2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CB2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CC2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CD2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CE2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CF2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CG2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CH2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CI2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CJ2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CK2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CL2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CM2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CN2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CO2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CP2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CQ2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CR2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CS2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -1140,60 +1404,21 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B3">
-        <v>231411.0</v>
+        <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C3">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c s="1" r="D3">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E3">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c s="1" r="F3">
-        <v>787.0</v>
-      </c>
-      <c s="1" r="G3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="I3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="J3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="K3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="L3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="M3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="U3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="V3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="W3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="X3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="Y3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="Z3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AA3">
+        <v>1403.0</v>
+      </c>
+      <c s="1" r="N3">
         <v>0.0</v>
       </c>
       <c s="1" r="AB3">
@@ -1215,195 +1440,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="AH3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AI3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AJ3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AK3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AL3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AM3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AN3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AO3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AP3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AQ3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AR3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AS3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AT3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AU3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AV3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AW3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AX3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AY3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AZ3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BA3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BB3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BC3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BD3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BE3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BF3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BG3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BH3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BI3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BJ3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BK3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BL3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BM3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BN3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BO3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BP3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BQ3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BR3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BS3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BT3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BU3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BV3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BW3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BX3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BY3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BZ3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CA3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CB3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CC3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CD3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CE3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CF3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CG3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CH3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CI3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CJ3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CK3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CL3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CM3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CN3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CO3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CP3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CQ3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CR3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CS3">
         <v>0.0</v>
       </c>
     </row>
@@ -1415,13 +1451,13 @@
         <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C4">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c s="1" r="D4">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E4">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c s="1" r="F4">
         <v>1403.0</v>
@@ -1459,20 +1495,26 @@
         <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C5">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c s="1" r="D5">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E5">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c s="1" r="F5">
         <v>1403.0</v>
       </c>
+      <c s="1" r="G5">
+        <v>0.0</v>
+      </c>
       <c s="1" r="N5">
         <v>0.0</v>
       </c>
+      <c s="1" r="U5">
+        <v>0.0</v>
+      </c>
       <c s="1" r="AB5">
         <v>0.0</v>
       </c>
@@ -1492,6 +1534,33 @@
         <v>0.0</v>
       </c>
       <c s="1" r="AH5">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AI5">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AP5">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AW5">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BD5">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BK5">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BR5">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BY5">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CF5">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CM5">
         <v>0.0</v>
       </c>
     </row>
@@ -1500,29 +1569,62 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B6">
-        <v>449931.0</v>
+        <v>231536.0</v>
       </c>
       <c t="s" s="1" r="C6">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c s="1" r="D6">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E6">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c s="1" r="F6">
-        <v>1403.0</v>
+        <v>4694.0</v>
       </c>
       <c s="1" r="G6">
         <v>0.0</v>
       </c>
-      <c s="1" r="N6">
+      <c s="1" r="H6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="I6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="J6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="K6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="L6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="M6">
         <v>0.0</v>
       </c>
       <c s="1" r="U6">
         <v>0.0</v>
       </c>
+      <c s="1" r="V6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="W6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="X6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="Y6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="Z6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AA6">
+        <v>0.0</v>
+      </c>
       <c s="1" r="AB6">
         <v>0.0</v>
       </c>
@@ -1547,28 +1649,190 @@
       <c s="1" r="AI6">
         <v>0.0</v>
       </c>
+      <c s="1" r="AJ6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AK6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AL6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AM6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AN6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AO6">
+        <v>0.0</v>
+      </c>
       <c s="1" r="AP6">
         <v>0.0</v>
       </c>
+      <c s="1" r="AQ6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AR6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AS6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AT6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AU6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AV6">
+        <v>0.0</v>
+      </c>
       <c s="1" r="AW6">
         <v>0.0</v>
       </c>
+      <c s="1" r="AX6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AY6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AZ6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BA6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BB6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BC6">
+        <v>0.0</v>
+      </c>
       <c s="1" r="BD6">
         <v>0.0</v>
       </c>
+      <c s="1" r="BE6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BF6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BG6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BH6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BI6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BJ6">
+        <v>0.0</v>
+      </c>
       <c s="1" r="BK6">
         <v>0.0</v>
       </c>
+      <c s="1" r="BL6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BM6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BN6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BO6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BP6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BQ6">
+        <v>0.0</v>
+      </c>
       <c s="1" r="BR6">
         <v>0.0</v>
       </c>
+      <c s="1" r="BS6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BT6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BU6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BV6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BW6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BX6">
+        <v>0.0</v>
+      </c>
       <c s="1" r="BY6">
         <v>0.0</v>
       </c>
+      <c s="1" r="BZ6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CA6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CB6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CC6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CD6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CE6">
+        <v>0.0</v>
+      </c>
       <c s="1" r="CF6">
         <v>0.0</v>
       </c>
+      <c s="1" r="CG6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CH6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CI6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CJ6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CK6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CL6">
+        <v>0.0</v>
+      </c>
       <c s="1" r="CM6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CN6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CO6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CP6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CQ6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CR6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CS6">
         <v>0.0</v>
       </c>
     </row>
@@ -1577,19 +1841,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B7">
-        <v>231536.0</v>
+        <v>231554.0</v>
       </c>
       <c t="s" s="1" r="C7">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c s="1" r="D7">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E7">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c s="1" r="F7">
-        <v>4694.0</v>
+        <v>831.0</v>
       </c>
       <c s="1" r="G7">
         <v>0.0</v>
@@ -1610,6 +1874,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M7">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N7">
         <v>0.0</v>
       </c>
       <c s="1" r="U7">
@@ -1849,19 +2116,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B8">
-        <v>231554.0</v>
+        <v>231581.0</v>
       </c>
       <c t="s" s="1" r="C8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c s="1" r="D8">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c s="1" r="F8">
-        <v>831.0</v>
+        <v>1759.0</v>
       </c>
       <c s="1" r="G8">
         <v>0.0</v>
@@ -2124,19 +2391,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B9">
-        <v>231581.0</v>
+        <v>231712.0</v>
       </c>
       <c t="s" s="1" r="C9">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c s="1" r="D9">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E9">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c s="1" r="F9">
-        <v>1759.0</v>
+        <v>5186.0</v>
       </c>
       <c s="1" r="G9">
         <v>0.0</v>
@@ -2399,19 +2666,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B10">
-        <v>231712.0</v>
+        <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C10">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c s="1" r="D10">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E10">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c s="1" r="F10">
-        <v>5186.0</v>
+        <v>8258.0</v>
       </c>
       <c s="1" r="G10">
         <v>0.0</v>
@@ -2677,13 +2944,13 @@
         <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c s="1" r="D11">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c s="1" r="F11">
         <v>8258.0</v>
@@ -2707,9 +2974,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M11">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N11">
         <v>0.0</v>
       </c>
       <c s="1" r="U11">
@@ -2952,13 +3216,13 @@
         <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C12">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c s="1" r="D12">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E12">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c s="1" r="F12">
         <v>8258.0</v>
@@ -3221,19 +3485,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B13">
-        <v>231624.0</v>
+        <v>231882.0</v>
       </c>
       <c t="s" s="1" r="C13">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c s="1" r="D13">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E13">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c s="1" r="F13">
-        <v>8258.0</v>
+        <v>4420.0</v>
       </c>
       <c s="1" r="G13">
         <v>0.0</v>
@@ -3254,6 +3518,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M13">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N13">
         <v>0.0</v>
       </c>
       <c s="1" r="U13">
@@ -3493,19 +3760,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B14">
-        <v>231882.0</v>
+        <v>232043.0</v>
       </c>
       <c t="s" s="1" r="C14">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c s="1" r="D14">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E14">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c s="1" r="F14">
-        <v>4420.0</v>
+        <v>1519.0</v>
       </c>
       <c s="1" r="G14">
         <v>0.0</v>
@@ -3768,19 +4035,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B15">
-        <v>232043.0</v>
+        <v>231970.0</v>
       </c>
       <c t="s" s="1" r="C15">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c s="1" r="D15">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E15">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c s="1" r="F15">
-        <v>1519.0</v>
+        <v>993.0</v>
       </c>
       <c s="1" r="G15">
         <v>0.0</v>
@@ -4043,19 +4310,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B16">
-        <v>231970.0</v>
+        <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C16">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c s="1" r="D16">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E16">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c s="1" r="F16">
-        <v>993.0</v>
+        <v>9840.0</v>
       </c>
       <c s="1" r="G16">
         <v>0.0</v>
@@ -4076,9 +4343,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M16">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N16">
         <v>0.0</v>
       </c>
       <c s="1" r="U16">
@@ -4318,19 +4582,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B17">
-        <v>248934.0</v>
+        <v>442806.0</v>
       </c>
       <c t="s" s="1" r="C17">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c s="1" r="D17">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E17">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c s="1" r="F17">
-        <v>9840.0</v>
+        <v>1144.0</v>
       </c>
       <c s="1" r="G17">
         <v>0.0</v>
@@ -4351,6 +4615,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M17">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N17">
         <v>0.0</v>
       </c>
       <c s="1" r="U17">
@@ -4593,13 +4860,13 @@
         <v>442806.0</v>
       </c>
       <c t="s" s="1" r="C18">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c s="1" r="D18">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E18">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c s="1" r="F18">
         <v>1144.0</v>
@@ -4623,9 +4890,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M18">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N18">
         <v>0.0</v>
       </c>
       <c s="1" r="U18">
@@ -4865,19 +5129,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B19">
-        <v>442806.0</v>
+        <v>232025.0</v>
       </c>
       <c t="s" s="1" r="C19">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c s="1" r="D19">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E19">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c s="1" r="F19">
-        <v>1144.0</v>
+        <v>945.0</v>
       </c>
       <c s="1" r="G19">
         <v>0.0</v>
@@ -5137,19 +5401,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B20">
-        <v>232025.0</v>
+        <v>232089.0</v>
       </c>
       <c t="s" s="1" r="C20">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c s="1" r="D20">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E20">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c s="1" r="F20">
-        <v>945.0</v>
+        <v>1510.0</v>
       </c>
       <c s="1" r="G20">
         <v>0.0</v>
@@ -5170,6 +5434,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M20">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N20">
         <v>0.0</v>
       </c>
       <c s="1" r="U20">
@@ -5409,19 +5676,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B21">
-        <v>232089.0</v>
+        <v>232186.0</v>
       </c>
       <c t="s" s="1" r="C21">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c s="1" r="D21">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E21">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c s="1" r="F21">
-        <v>1510.0</v>
+        <v>32961.0</v>
       </c>
       <c s="1" r="G21">
         <v>0.0</v>
@@ -5684,19 +5951,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B22">
-        <v>232186.0</v>
+        <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C22">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c s="1" r="D22">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E22">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c s="1" r="F22">
-        <v>32961.0</v>
+        <v>7520.0</v>
       </c>
       <c s="1" r="G22">
         <v>0.0</v>
@@ -5717,9 +5984,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M22">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N22">
         <v>0.0</v>
       </c>
       <c s="1" r="U22">
@@ -5959,19 +6223,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B23">
-        <v>232195.0</v>
+        <v>232256.0</v>
       </c>
       <c t="s" s="1" r="C23">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c s="1" r="D23">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E23">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c s="1" r="F23">
-        <v>7520.0</v>
+        <v>1080.0</v>
       </c>
       <c s="1" r="G23">
         <v>0.0</v>
@@ -5992,6 +6256,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M23">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N23">
         <v>0.0</v>
       </c>
       <c s="1" r="U23">
@@ -6231,19 +6498,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B24">
-        <v>232256.0</v>
+        <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C24">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c s="1" r="D24">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E24">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c s="1" r="F24">
-        <v>1080.0</v>
+        <v>4765.0</v>
       </c>
       <c s="1" r="G24">
         <v>0.0</v>
@@ -6506,19 +6773,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B25">
-        <v>232265.0</v>
+        <v>232308.0</v>
       </c>
       <c t="s" s="1" r="C25">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c s="1" r="D25">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E25">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c s="1" r="F25">
-        <v>4765.0</v>
+        <v>794.0</v>
       </c>
       <c s="1" r="G25">
         <v>0.0</v>
@@ -6539,9 +6806,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M25">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N25">
         <v>0.0</v>
       </c>
       <c s="1" r="U25">
@@ -6781,19 +7045,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B26">
-        <v>232308.0</v>
+        <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C26">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c s="1" r="D26">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E26">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c s="1" r="F26">
-        <v>794.0</v>
+        <v>12846.0</v>
       </c>
       <c s="1" r="G26">
         <v>0.0</v>
@@ -7053,19 +7317,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B27">
-        <v>232414.0</v>
+        <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C27">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c s="1" r="D27">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E27">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c s="1" r="F27">
-        <v>12846.0</v>
+        <v>19927.0</v>
       </c>
       <c s="1" r="G27">
         <v>0.0</v>
@@ -7086,6 +7350,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M27">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N27">
         <v>0.0</v>
       </c>
       <c s="1" r="U27">
@@ -7325,19 +7592,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B28">
-        <v>232423.0</v>
+        <v>231837.0</v>
       </c>
       <c t="s" s="1" r="C28">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c s="1" r="D28">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E28">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c s="1" r="F28">
-        <v>19927.0</v>
+        <v>1048.0</v>
       </c>
       <c s="1" r="G28">
         <v>0.0</v>
@@ -7600,19 +7867,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B29">
-        <v>231837.0</v>
+        <v>232557.0</v>
       </c>
       <c t="s" s="1" r="C29">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c s="1" r="D29">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E29">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c s="1" r="F29">
-        <v>1048.0</v>
+        <v>74372.0</v>
       </c>
       <c s="1" r="G29">
         <v>0.0</v>
@@ -7875,19 +8142,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B30">
-        <v>232557.0</v>
+        <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C30">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c s="1" r="D30">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E30">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c s="1" r="F30">
-        <v>74372.0</v>
+        <v>4834.0</v>
       </c>
       <c s="1" r="G30">
         <v>0.0</v>
@@ -8153,13 +8420,13 @@
         <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C31">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c s="1" r="D31">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E31">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c s="1" r="F31">
         <v>4834.0</v>
@@ -8183,9 +8450,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M31">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N31">
         <v>0.0</v>
       </c>
       <c s="1" r="U31">
@@ -8428,13 +8692,13 @@
         <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C32">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c s="1" r="D32">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E32">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c s="1" r="F32">
         <v>4834.0</v>
@@ -8697,19 +8961,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B33">
-        <v>232566.0</v>
+        <v>232609.0</v>
       </c>
       <c t="s" s="1" r="C33">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c s="1" r="D33">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E33">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c s="1" r="F33">
-        <v>4834.0</v>
+        <v>2756.0</v>
       </c>
       <c s="1" r="G33">
         <v>0.0</v>
@@ -8969,19 +9233,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B34">
-        <v>232609.0</v>
+        <v>232706.0</v>
       </c>
       <c t="s" s="1" r="C34">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c s="1" r="D34">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E34">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c s="1" r="F34">
-        <v>2756.0</v>
+        <v>3702.0</v>
       </c>
       <c s="1" r="G34">
         <v>0.0</v>
@@ -9002,6 +9266,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M34">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N34">
         <v>0.0</v>
       </c>
       <c s="1" r="U34">
@@ -9241,19 +9508,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B35">
-        <v>232706.0</v>
+        <v>232788.0</v>
       </c>
       <c t="s" s="1" r="C35">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c s="1" r="D35">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E35">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c s="1" r="F35">
-        <v>3702.0</v>
+        <v>3089.0</v>
       </c>
       <c s="1" r="G35">
         <v>0.0</v>
@@ -9516,19 +9783,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B36">
-        <v>232788.0</v>
+        <v>232867.0</v>
       </c>
       <c t="s" s="1" r="C36">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c s="1" r="D36">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E36">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c s="1" r="F36">
-        <v>3089.0</v>
+        <v>5083.0</v>
       </c>
       <c s="1" r="G36">
         <v>0.0</v>
@@ -9549,9 +9816,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M36">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N36">
         <v>0.0</v>
       </c>
       <c s="1" r="U36">
@@ -9791,19 +10055,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B37">
-        <v>232867.0</v>
+        <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C37">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c s="1" r="D37">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E37">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c s="1" r="F37">
-        <v>5083.0</v>
+        <v>51864.0</v>
       </c>
       <c s="1" r="G37">
         <v>0.0</v>
@@ -9824,6 +10088,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M37">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N37">
         <v>0.0</v>
       </c>
       <c s="1" r="U37">
@@ -10066,13 +10333,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C38">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c s="1" r="D38">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E38">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c s="1" r="F38">
         <v>51864.0</v>
@@ -10341,13 +10608,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C39">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c s="1" r="D39">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E39">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c s="1" r="F39">
         <v>51864.0</v>
@@ -10616,13 +10883,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C40">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c s="1" r="D40">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E40">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c s="1" r="F40">
         <v>51864.0</v>
@@ -10891,13 +11158,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C41">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c s="1" r="D41">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E41">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c s="1" r="F41">
         <v>51864.0</v>
@@ -11166,13 +11433,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C42">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c s="1" r="D42">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E42">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c s="1" r="F42">
         <v>51864.0</v>
@@ -11441,13 +11708,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C43">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c s="1" r="D43">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E43">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c s="1" r="F43">
         <v>51864.0</v>
@@ -11471,9 +11738,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M43">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N43">
         <v>0.0</v>
       </c>
       <c s="1" r="U43">
@@ -11716,13 +11980,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C44">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c s="1" r="D44">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E44">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="1" r="F44">
         <v>51864.0</v>
@@ -11988,13 +12252,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C45">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c s="1" r="D45">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E45">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c s="1" r="F45">
         <v>51864.0</v>
@@ -12260,13 +12524,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C46">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c s="1" r="D46">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c t="s" s="1" r="E46">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c s="1" r="F46">
         <v>51864.0</v>
@@ -12532,13 +12796,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C47">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c s="1" r="D47">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c t="s" s="1" r="E47">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c s="1" r="F47">
         <v>51864.0</v>
@@ -12804,13 +13068,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C48">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c s="1" r="D48">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c t="s" s="1" r="E48">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c s="1" r="F48">
         <v>51864.0</v>
@@ -13076,13 +13340,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C49">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c s="1" r="D49">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c t="s" s="1" r="E49">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c s="1" r="F49">
         <v>51864.0</v>
@@ -13348,13 +13612,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C50">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c s="1" r="D50">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c t="s" s="1" r="E50">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c s="1" r="F50">
         <v>51864.0</v>
@@ -13617,19 +13881,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B51">
-        <v>232946.0</v>
+        <v>232982.0</v>
       </c>
       <c t="s" s="1" r="C51">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="1" r="D51">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E51">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c s="1" r="F51">
-        <v>51864.0</v>
+        <v>24670.0</v>
       </c>
       <c s="1" r="G51">
         <v>0.0</v>
@@ -13650,6 +13914,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M51">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N51">
         <v>0.0</v>
       </c>
       <c s="1" r="U51">
@@ -13889,19 +14156,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B52">
-        <v>232982.0</v>
+        <v>233019.0</v>
       </c>
       <c t="s" s="1" r="C52">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c s="1" r="D52">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E52">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c s="1" r="F52">
-        <v>24670.0</v>
+        <v>3079.0</v>
       </c>
       <c s="1" r="G52">
         <v>0.0</v>
@@ -14164,19 +14431,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B53">
-        <v>233019.0</v>
+        <v>233116.0</v>
       </c>
       <c t="s" s="1" r="C53">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c s="1" r="D53">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E53">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c s="1" r="F53">
-        <v>3079.0</v>
+        <v>5693.0</v>
       </c>
       <c s="1" r="G53">
         <v>0.0</v>
@@ -14439,19 +14706,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B54">
-        <v>233116.0</v>
+        <v>233277.0</v>
       </c>
       <c t="s" s="1" r="C54">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c s="1" r="D54">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E54">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c s="1" r="F54">
-        <v>5693.0</v>
+        <v>9573.0</v>
       </c>
       <c s="1" r="G54">
         <v>0.0</v>
@@ -14714,19 +14981,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B55">
-        <v>233277.0</v>
+        <v>233310.0</v>
       </c>
       <c t="s" s="1" r="C55">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c s="1" r="D55">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E55">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c s="1" r="F55">
-        <v>9573.0</v>
+        <v>3711.0</v>
       </c>
       <c s="1" r="G55">
         <v>0.0</v>
@@ -14747,9 +15014,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M55">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N55">
         <v>0.0</v>
       </c>
       <c s="1" r="U55">
@@ -14989,19 +15253,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B56">
-        <v>233310.0</v>
+        <v>233541.0</v>
       </c>
       <c t="s" s="1" r="C56">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c s="1" r="D56">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E56">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c s="1" r="F56">
-        <v>3711.0</v>
+        <v>4176.0</v>
       </c>
       <c s="1" r="G56">
         <v>0.0</v>
@@ -15022,6 +15286,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M56">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N56">
         <v>0.0</v>
       </c>
       <c s="1" r="U56">
@@ -15261,19 +15528,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B57">
-        <v>233541.0</v>
+        <v>233639.0</v>
       </c>
       <c t="s" s="1" r="C57">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c s="1" r="D57">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E57">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c s="1" r="F57">
-        <v>4176.0</v>
+        <v>6042.0</v>
       </c>
       <c s="1" r="G57">
         <v>0.0</v>
@@ -15536,19 +15803,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B58">
-        <v>233639.0</v>
+        <v>233648.0</v>
       </c>
       <c t="s" s="1" r="C58">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c s="1" r="D58">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E58">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c s="1" r="F58">
-        <v>6042.0</v>
+        <v>2766.0</v>
       </c>
       <c s="1" r="G58">
         <v>0.0</v>
@@ -15811,19 +16078,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B59">
-        <v>233648.0</v>
+        <v>233718.0</v>
       </c>
       <c t="s" s="1" r="C59">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c s="1" r="D59">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E59">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c s="1" r="F59">
-        <v>2766.0</v>
+        <v>739.0</v>
       </c>
       <c s="1" r="G59">
         <v>0.0</v>
@@ -15844,9 +16111,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M59">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N59">
         <v>0.0</v>
       </c>
       <c s="1" r="U59">
@@ -16086,19 +16350,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B60">
-        <v>233718.0</v>
+        <v>458496.0</v>
       </c>
       <c t="s" s="1" r="C60">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c s="1" r="D60">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E60">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c s="1" r="F60">
-        <v>739.0</v>
+        <v>550.0</v>
       </c>
       <c s="1" r="G60">
         <v>0.0</v>
@@ -16358,19 +16622,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B61">
-        <v>458496.0</v>
+        <v>440341.0</v>
       </c>
       <c t="s" s="1" r="C61">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c s="1" r="D61">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E61">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c s="1" r="F61">
-        <v>550.0</v>
+        <v>1557.0</v>
       </c>
       <c s="1" r="G61">
         <v>0.0</v>
@@ -16391,6 +16655,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M61">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N61">
         <v>0.0</v>
       </c>
       <c s="1" r="U61">
@@ -16630,64 +16897,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B62">
-        <v>440341.0</v>
+        <v>233897.0</v>
       </c>
       <c t="s" s="1" r="C62">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c s="1" r="D62">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E62">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c s="1" r="F62">
-        <v>1557.0</v>
-      </c>
-      <c s="1" r="G62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="I62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="J62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="K62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="L62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="M62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="U62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="V62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="W62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="X62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="Y62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="Z62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AA62">
-        <v>0.0</v>
+        <v>2420.0</v>
       </c>
       <c s="1" r="AB62">
         <v>0.0</v>
@@ -16708,195 +16930,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="AH62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AI62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AJ62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AK62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AL62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AM62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AN62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AO62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AP62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AQ62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AR62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AS62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AT62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AU62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AV62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AW62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AX62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AY62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AZ62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BA62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BB62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BC62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BD62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BE62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BF62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BG62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BH62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BI62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BJ62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BK62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BL62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BM62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BN62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BO62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BP62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BQ62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BR62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BS62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BT62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BU62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BV62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BW62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BX62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BY62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BZ62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CA62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CB62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CC62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CD62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CE62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CF62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CG62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CH62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CI62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CJ62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CK62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CL62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CM62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CN62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CO62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CP62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CQ62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CR62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CS62">
         <v>0.0</v>
       </c>
     </row>
@@ -16905,19 +16938,64 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B63">
-        <v>233897.0</v>
+        <v>233754.0</v>
       </c>
       <c t="s" s="1" r="C63">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c s="1" r="D63">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E63">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c s="1" r="F63">
-        <v>2420.0</v>
+        <v>10942.0</v>
+      </c>
+      <c s="1" r="G63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="I63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="J63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="K63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="L63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="M63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="U63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="V63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="W63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="X63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="Y63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="Z63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AA63">
+        <v>0.0</v>
       </c>
       <c s="1" r="AB63">
         <v>0.0</v>
@@ -16938,6 +17016,195 @@
         <v>0.0</v>
       </c>
       <c s="1" r="AH63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AI63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AJ63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AK63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AL63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AM63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AN63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AO63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AP63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AQ63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AR63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AS63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AT63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AU63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AV63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AW63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AX63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AY63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AZ63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BA63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BB63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BC63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BD63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BE63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BF63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BG63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BH63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BI63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BJ63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BK63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BL63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BM63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BN63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BO63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BP63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BQ63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BR63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BS63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BT63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BU63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BV63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BW63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BX63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BY63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BZ63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CA63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CB63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CC63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CD63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CE63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CF63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CG63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CH63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CI63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CJ63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CK63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CL63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CM63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CN63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CO63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CP63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CQ63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CR63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CS63">
         <v>0.0</v>
       </c>
     </row>
@@ -16946,19 +17213,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B64">
-        <v>233754.0</v>
+        <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C64">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c s="1" r="D64">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E64">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c s="1" r="F64">
-        <v>10942.0</v>
+        <v>30134.0</v>
       </c>
       <c s="1" r="G64">
         <v>0.0</v>
@@ -16979,9 +17246,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M64">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N64">
         <v>0.0</v>
       </c>
       <c s="1" r="U64">
@@ -17224,13 +17488,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C65">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c s="1" r="D65">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E65">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c s="1" r="F65">
         <v>30134.0</v>
@@ -17493,19 +17757,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B66">
-        <v>233772.0</v>
+        <v>232681.0</v>
       </c>
       <c t="s" s="1" r="C66">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c s="1" r="D66">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E66">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c s="1" r="F66">
-        <v>30134.0</v>
+        <v>5093.0</v>
       </c>
       <c s="1" r="G66">
         <v>0.0</v>
@@ -17526,6 +17790,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M66">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N66">
         <v>0.0</v>
       </c>
       <c s="1" r="U66">
@@ -17768,13 +18035,13 @@
         <v>232681.0</v>
       </c>
       <c t="s" s="1" r="C67">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c s="1" r="D67">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E67">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c s="1" r="F67">
         <v>5093.0</v>
@@ -17798,9 +18065,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M67">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N67">
         <v>0.0</v>
       </c>
       <c s="1" r="U67">
@@ -18040,19 +18304,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B68">
-        <v>232681.0</v>
+        <v>233374.0</v>
       </c>
       <c t="s" s="1" r="C68">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c s="1" r="D68">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E68">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c s="1" r="F68">
-        <v>5093.0</v>
+        <v>4361.0</v>
       </c>
       <c s="1" r="G68">
         <v>0.0</v>
@@ -18073,6 +18337,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M68">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N68">
         <v>0.0</v>
       </c>
       <c s="1" r="U68">
@@ -18312,19 +18579,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B69">
-        <v>233374.0</v>
+        <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C69">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c s="1" r="D69">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E69">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c s="1" r="F69">
-        <v>4361.0</v>
+        <v>23907.0</v>
       </c>
       <c s="1" r="G69">
         <v>0.0</v>
@@ -18587,19 +18854,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B70">
-        <v>234076.0</v>
+        <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C70">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c s="1" r="D70">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E70">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c s="1" r="F70">
-        <v>23907.0</v>
+        <v>31445.0</v>
       </c>
       <c s="1" r="G70">
         <v>0.0</v>
@@ -18865,13 +19132,13 @@
         <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C71">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c s="1" r="D71">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E71">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c s="1" r="F71">
         <v>31445.0</v>
@@ -19137,19 +19404,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B72">
-        <v>234030.0</v>
+        <v>233912.0</v>
       </c>
       <c t="s" s="1" r="C72">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c s="1" r="D72">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E72">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c s="1" r="F72">
-        <v>31445.0</v>
+        <v>496.0</v>
       </c>
       <c s="1" r="G72">
         <v>0.0</v>
@@ -19170,9 +19437,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M72">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N72">
         <v>0.0</v>
       </c>
       <c s="1" r="U72">
@@ -19412,19 +19676,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B73">
-        <v>233912.0</v>
+        <v>234085.0</v>
       </c>
       <c t="s" s="1" r="C73">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c s="1" r="D73">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E73">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c s="1" r="F73">
-        <v>496.0</v>
+        <v>1664.0</v>
       </c>
       <c s="1" r="G73">
         <v>0.0</v>
@@ -19445,6 +19709,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M73">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N73">
         <v>0.0</v>
       </c>
       <c s="1" r="U73">
@@ -19684,19 +19951,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B74">
-        <v>234085.0</v>
+        <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C74">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c s="1" r="D74">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E74">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c s="1" r="F74">
-        <v>1664.0</v>
+        <v>31087.0</v>
       </c>
       <c s="1" r="G74">
         <v>0.0</v>
@@ -19959,19 +20226,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B75">
-        <v>233921.0</v>
+        <v>234155.0</v>
       </c>
       <c t="s" s="1" r="C75">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="1" r="D75">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E75">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="1" r="F75">
-        <v>31087.0</v>
+        <v>6208.0</v>
       </c>
       <c s="1" r="G75">
         <v>0.0</v>
@@ -19992,9 +20259,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M75">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N75">
         <v>0.0</v>
       </c>
       <c s="1" r="U75">
@@ -20234,19 +20498,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B76">
-        <v>234155.0</v>
+        <v>234137.0</v>
       </c>
       <c t="s" s="1" r="C76">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c s="1" r="D76">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E76">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c s="1" r="F76">
-        <v>6208.0</v>
+        <v>540.0</v>
       </c>
       <c s="1" r="G76">
         <v>0.0</v>
@@ -20506,19 +20770,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B77">
-        <v>234137.0</v>
+        <v>233949.0</v>
       </c>
       <c t="s" s="1" r="C77">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c s="1" r="D77">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E77">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c s="1" r="F77">
-        <v>540.0</v>
+        <v>8440.0</v>
       </c>
       <c s="1" r="G77">
         <v>0.0</v>
@@ -20539,6 +20803,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M77">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N77">
         <v>0.0</v>
       </c>
       <c s="1" r="U77">
@@ -20778,19 +21045,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B78">
-        <v>233949.0</v>
+        <v>234207.0</v>
       </c>
       <c t="s" s="1" r="C78">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c s="1" r="D78">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E78">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c s="1" r="F78">
-        <v>8440.0</v>
+        <v>2302.0</v>
       </c>
       <c s="1" r="G78">
         <v>0.0</v>
@@ -21053,19 +21320,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B79">
-        <v>234207.0</v>
+        <v>234377.0</v>
       </c>
       <c t="s" s="1" r="C79">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c s="1" r="D79">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E79">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c s="1" r="F79">
-        <v>2302.0</v>
+        <v>3717.0</v>
       </c>
       <c s="1" r="G79">
         <v>0.0</v>
@@ -21320,281 +21587,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CS79">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c s="1" r="A80">
-        <v>2012.0</v>
-      </c>
-      <c s="1" r="B80">
-        <v>234377.0</v>
-      </c>
-      <c t="s" s="1" r="C80">
-        <v>252</v>
-      </c>
-      <c s="1" r="D80">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="1" r="E80">
-        <v>253</v>
-      </c>
-      <c s="1" r="F80">
-        <v>3717.0</v>
-      </c>
-      <c s="1" r="G80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="I80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="J80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="K80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="L80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="M80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="U80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="V80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="W80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="X80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="Y80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="Z80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AA80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AB80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AC80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AD80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AE80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AF80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AG80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AH80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AI80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AJ80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AK80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AL80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AM80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AN80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AO80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AP80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AQ80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AR80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AS80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AT80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AU80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AV80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AW80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AX80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AY80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AZ80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BA80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BB80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BC80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BD80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BE80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BF80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BG80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BH80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BI80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BJ80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BK80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BL80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BM80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BN80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BO80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BP80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BQ80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BR80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BS80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BT80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BU80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BV80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BW80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BX80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BY80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BZ80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CA80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CB80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CC80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CD80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CE80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CF80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CG80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CH80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CI80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CJ80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CK80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CL80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CM80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CN80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CO80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CP80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CQ80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CR80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CS80">
         <v>0.0</v>
       </c>
     </row>
